--- a/License.xlsx
+++ b/License.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28803"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0fbab4a2ee6f4808/EASY/Product/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\easy-licenses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="153" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3E52BCE-6739-46DA-85B8-4472802667F1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB1A330-6B14-4D2E-8EEF-65225D1B10D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="1155" windowWidth="28800" windowHeight="14895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="License_DB" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>Prdt</t>
   </si>
@@ -120,6 +118,9 @@
   </si>
   <si>
     <t>EASY-29229771939</t>
+  </si>
+  <si>
+    <t>29027D39-DDBE-4E6A-9735-D40300E3C29F</t>
   </si>
 </sst>
 </file>
@@ -529,19 +530,19 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="57.140625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="34.7109375" style="6" customWidth="1"/>
-    <col min="4" max="5" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="34.75" style="6" customWidth="1"/>
+    <col min="4" max="5" width="10.875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
     <col min="7" max="7" width="9" style="2"/>
-    <col min="8" max="8" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="13" width="9" style="2"/>
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
@@ -549,11 +550,11 @@
     <row r="1" spans="1:13">
       <c r="C1" s="1" t="str">
         <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
-        <v>EASY-85384629595</v>
+        <v>EASY-98632111646</v>
       </c>
       <c r="D1" s="5">
         <f ca="1">TODAY()</f>
-        <v>45761</v>
+        <v>45762</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -608,7 +609,7 @@
         <v>45748</v>
       </c>
       <c r="E3" s="5">
-        <f t="shared" ref="E3:E6" si="0">+D3+F3</f>
+        <f t="shared" ref="E3:E5" si="0">+D3+F3</f>
         <v>46113</v>
       </c>
       <c r="F3" s="1">
@@ -746,7 +747,7 @@
     </row>
     <row r="10" spans="1:13">
       <c r="B10" s="4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>27</v>

--- a/License.xlsx
+++ b/License.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\easy-licenses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB1A330-6B14-4D2E-8EEF-65225D1B10D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA166887-4071-47CD-AE9A-C1400CD7E38C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10860" yWindow="1470" windowWidth="13710" windowHeight="14895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="License_DB" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>Prdt</t>
   </si>
@@ -112,9 +112,6 @@
   </si>
   <si>
     <t>EASY-63885723894</t>
-  </si>
-  <si>
-    <t>EASY-22990223689</t>
   </si>
   <si>
     <t>EASY-29229771939</t>
@@ -527,10 +524,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -550,7 +547,7 @@
     <row r="1" spans="1:13">
       <c r="C1" s="1" t="str">
         <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
-        <v>EASY-98632111646</v>
+        <v>EASY-21407209556</v>
       </c>
       <c r="D1" s="5">
         <f ca="1">TODAY()</f>
@@ -720,49 +717,31 @@
       <c r="F8" s="1">
         <v>365</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="I8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="B9" s="4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="5">
-        <v>45757</v>
+        <v>45761</v>
       </c>
       <c r="E9" s="5">
         <f>+D9+F9</f>
-        <v>46122</v>
+        <v>46126</v>
       </c>
       <c r="F9" s="1">
         <v>365</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="B10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="5">
-        <v>45761</v>
-      </c>
-      <c r="E10" s="5">
-        <f>+D10+F10</f>
-        <v>46126</v>
-      </c>
-      <c r="F10" s="1">
-        <v>365</v>
-      </c>
-      <c r="G10" s="2" t="s">
         <v>15</v>
       </c>
     </row>

--- a/License.xlsx
+++ b/License.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\easy-licenses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA166887-4071-47CD-AE9A-C1400CD7E38C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBEB6DDE-98DD-4A49-A754-5C0015111698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10860" yWindow="1470" windowWidth="13710" windowHeight="14895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="License_DB" sheetId="1" r:id="rId1"/>
@@ -526,8 +526,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -547,7 +547,7 @@
     <row r="1" spans="1:13">
       <c r="C1" s="1" t="str">
         <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
-        <v>EASY-21407209556</v>
+        <v>EASY-27329190089</v>
       </c>
       <c r="D1" s="5">
         <f ca="1">TODAY()</f>
@@ -696,7 +696,10 @@
       <c r="F7" s="1">
         <v>365</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="I7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -717,10 +720,7 @@
       <c r="F8" s="1">
         <v>365</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>15</v>
       </c>
     </row>

--- a/License.xlsx
+++ b/License.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\easy-licenses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBEB6DDE-98DD-4A49-A754-5C0015111698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF64880-FC6A-4B9D-AF7B-FBC27F327689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>Prdt</t>
   </si>
@@ -527,7 +527,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -547,7 +547,7 @@
     <row r="1" spans="1:13">
       <c r="C1" s="1" t="str">
         <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
-        <v>EASY-27329190089</v>
+        <v>EASY-88124470180</v>
       </c>
       <c r="D1" s="5">
         <f ca="1">TODAY()</f>
@@ -696,10 +696,7 @@
       <c r="F7" s="1">
         <v>365</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>15</v>
       </c>
     </row>

--- a/License.xlsx
+++ b/License.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\easy-licenses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF64880-FC6A-4B9D-AF7B-FBC27F327689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16EA450-F065-457C-96ED-0B51CA255C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14430" yWindow="1110" windowWidth="13710" windowHeight="14895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="License_DB" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>Prdt</t>
   </si>
@@ -100,12 +100,6 @@
   </si>
   <si>
     <t>EASY-59342082445</t>
-  </si>
-  <si>
-    <t>4C68A711-89BE-412A-BD2D-CB33771CC62D</t>
-  </si>
-  <si>
-    <t>EASY-49812948197</t>
   </si>
   <si>
     <t>02A20D18-F4BF-5E49-82D2-DEC36C81469A</t>
@@ -527,7 +521,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -547,7 +541,7 @@
     <row r="1" spans="1:13">
       <c r="C1" s="1" t="str">
         <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
-        <v>EASY-88124470180</v>
+        <v>EASY-12691301034</v>
       </c>
       <c r="D1" s="5">
         <f ca="1">TODAY()</f>
@@ -680,32 +674,15 @@
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="B7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="5">
-        <v>45755</v>
-      </c>
-      <c r="E7" s="5">
-        <f>+D7+F7</f>
-        <v>46120</v>
-      </c>
-      <c r="F7" s="1">
-        <v>365</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:13">
       <c r="B8" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D8" s="5">
         <v>45757</v>
@@ -723,10 +700,10 @@
     </row>
     <row r="9" spans="1:13">
       <c r="B9" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9" s="5">
         <v>45761</v>

--- a/License.xlsx
+++ b/License.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\easy-licenses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16EA450-F065-457C-96ED-0B51CA255C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9B5234-2674-4981-8891-FBAF9151228C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14430" yWindow="1110" windowWidth="13710" windowHeight="14895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10155" yWindow="480" windowWidth="13710" windowHeight="14895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="License_DB" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>Prdt</t>
   </si>
@@ -112,6 +112,12 @@
   </si>
   <si>
     <t>29027D39-DDBE-4E6A-9735-D40300E3C29F</t>
+  </si>
+  <si>
+    <t>4C68A711-89BE-412A-BD2D-CB33771CC62D</t>
+  </si>
+  <si>
+    <t>EASY-97179828553</t>
   </si>
 </sst>
 </file>
@@ -520,8 +526,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -541,7 +547,7 @@
     <row r="1" spans="1:13">
       <c r="C1" s="1" t="str">
         <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
-        <v>EASY-12691301034</v>
+        <v>EASY-80468680922</v>
       </c>
       <c r="D1" s="5">
         <f ca="1">TODAY()</f>
@@ -674,8 +680,28 @@
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="B7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="5">
+        <v>45755</v>
+      </c>
+      <c r="E7" s="5">
+        <f>+D7+F7</f>
+        <v>46120</v>
+      </c>
+      <c r="F7" s="1">
+        <v>365</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="8" spans="1:13">
       <c r="B8" s="4" t="s">

--- a/License.xlsx
+++ b/License.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\easy-licenses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9B5234-2674-4981-8891-FBAF9151228C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF01D40-338B-4429-9C85-033673FCC3C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10155" yWindow="480" windowWidth="13710" windowHeight="14895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13890" yWindow="930" windowWidth="13710" windowHeight="14895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="License_DB" sheetId="1" r:id="rId1"/>
@@ -526,8 +526,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -547,7 +547,7 @@
     <row r="1" spans="1:13">
       <c r="C1" s="1" t="str">
         <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
-        <v>EASY-80468680922</v>
+        <v>EASY-61418960877</v>
       </c>
       <c r="D1" s="5">
         <f ca="1">TODAY()</f>

--- a/License.xlsx
+++ b/License.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\easy-licenses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF01D40-338B-4429-9C85-033673FCC3C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2A4D2C-E65B-4412-9000-59E01F47CBB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13890" yWindow="930" windowWidth="13710" windowHeight="14895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="License_DB" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>Prdt</t>
   </si>
@@ -527,7 +527,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -547,7 +547,7 @@
     <row r="1" spans="1:13">
       <c r="C1" s="1" t="str">
         <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
-        <v>EASY-61418960877</v>
+        <v>EASY-40194725571</v>
       </c>
       <c r="D1" s="5">
         <f ca="1">TODAY()</f>
@@ -696,10 +696,7 @@
       <c r="F7" s="1">
         <v>365</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>15</v>
       </c>
     </row>

--- a/License.xlsx
+++ b/License.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\easy-licenses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2A4D2C-E65B-4412-9000-59E01F47CBB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015A6F38-342E-44C3-9E16-FCC1A75DBA10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9870" yWindow="2625" windowWidth="13710" windowHeight="14895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="License_DB" sheetId="1" r:id="rId1"/>
@@ -526,8 +526,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -547,7 +547,7 @@
     <row r="1" spans="1:13">
       <c r="C1" s="1" t="str">
         <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
-        <v>EASY-40194725571</v>
+        <v>EASY-2532104042</v>
       </c>
       <c r="D1" s="5">
         <f ca="1">TODAY()</f>
@@ -687,11 +687,11 @@
         <v>27</v>
       </c>
       <c r="D7" s="5">
-        <v>45755</v>
+        <v>45748</v>
       </c>
       <c r="E7" s="5">
-        <f>+D7+F7</f>
-        <v>46120</v>
+        <f t="shared" ref="E7" si="1">+D7+F7</f>
+        <v>46113</v>
       </c>
       <c r="F7" s="1">
         <v>365</v>

--- a/License.xlsx
+++ b/License.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\easy-licenses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015A6F38-342E-44C3-9E16-FCC1A75DBA10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C1194D-5F09-443D-B415-4831CFED6975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9870" yWindow="2625" windowWidth="13710" windowHeight="14895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1305" windowWidth="13710" windowHeight="14895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="License_DB" sheetId="1" r:id="rId1"/>
@@ -527,7 +527,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -547,7 +547,7 @@
     <row r="1" spans="1:13">
       <c r="C1" s="1" t="str">
         <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
-        <v>EASY-2532104042</v>
+        <v>EASY-68374994142</v>
       </c>
       <c r="D1" s="5">
         <f ca="1">TODAY()</f>
@@ -687,11 +687,10 @@
         <v>27</v>
       </c>
       <c r="D7" s="5">
-        <v>45748</v>
+        <v>45755</v>
       </c>
       <c r="E7" s="5">
-        <f t="shared" ref="E7" si="1">+D7+F7</f>
-        <v>46113</v>
+        <v>45755</v>
       </c>
       <c r="F7" s="1">
         <v>365</v>

--- a/License.xlsx
+++ b/License.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\easy-licenses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C1194D-5F09-443D-B415-4831CFED6975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D965FE6B-915B-45AD-B7F8-900FB00519CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1305" windowWidth="13710" windowHeight="14895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="3285" windowWidth="13710" windowHeight="14895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="License_DB" sheetId="1" r:id="rId1"/>
@@ -527,7 +527,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -547,7 +547,7 @@
     <row r="1" spans="1:13">
       <c r="C1" s="1" t="str">
         <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
-        <v>EASY-68374994142</v>
+        <v>EASY-8167410294</v>
       </c>
       <c r="D1" s="5">
         <f ca="1">TODAY()</f>
@@ -690,7 +690,8 @@
         <v>45755</v>
       </c>
       <c r="E7" s="5">
-        <v>45755</v>
+        <f>+D7+F7</f>
+        <v>46120</v>
       </c>
       <c r="F7" s="1">
         <v>365</v>

--- a/License.xlsx
+++ b/License.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\easy-licenses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D965FE6B-915B-45AD-B7F8-900FB00519CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D89551-B47D-483E-81F5-B6C42DC7BEA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="3285" windowWidth="13710" windowHeight="14895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8040" yWindow="705" windowWidth="13710" windowHeight="14895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="License_DB" sheetId="1" r:id="rId1"/>
@@ -527,7 +527,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -547,7 +547,7 @@
     <row r="1" spans="1:13">
       <c r="C1" s="1" t="str">
         <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
-        <v>EASY-8167410294</v>
+        <v>EASY-31064799277</v>
       </c>
       <c r="D1" s="5">
         <f ca="1">TODAY()</f>
@@ -690,8 +690,7 @@
         <v>45755</v>
       </c>
       <c r="E7" s="5">
-        <f>+D7+F7</f>
-        <v>46120</v>
+        <v>45755</v>
       </c>
       <c r="F7" s="1">
         <v>365</v>

--- a/License.xlsx
+++ b/License.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\easy-licenses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D89551-B47D-483E-81F5-B6C42DC7BEA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A83D72-B576-4755-BC60-FE46F3CE26F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8040" yWindow="705" windowWidth="13710" windowHeight="14895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17760" yWindow="1440" windowWidth="13710" windowHeight="14895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="License_DB" sheetId="1" r:id="rId1"/>
@@ -527,7 +527,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -547,7 +547,7 @@
     <row r="1" spans="1:13">
       <c r="C1" s="1" t="str">
         <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
-        <v>EASY-31064799277</v>
+        <v>EASY-63218736395</v>
       </c>
       <c r="D1" s="5">
         <f ca="1">TODAY()</f>
@@ -690,7 +690,8 @@
         <v>45755</v>
       </c>
       <c r="E7" s="5">
-        <v>45755</v>
+        <f>+D7+F7</f>
+        <v>46120</v>
       </c>
       <c r="F7" s="1">
         <v>365</v>

--- a/License.xlsx
+++ b/License.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\easy-licenses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A83D72-B576-4755-BC60-FE46F3CE26F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0136B3-4FFA-4649-A3A3-B59777A2F086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17760" yWindow="1440" windowWidth="13710" windowHeight="14895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10830" yWindow="705" windowWidth="13710" windowHeight="14895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="License_DB" sheetId="1" r:id="rId1"/>
@@ -527,7 +527,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -547,7 +547,7 @@
     <row r="1" spans="1:13">
       <c r="C1" s="1" t="str">
         <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
-        <v>EASY-63218736395</v>
+        <v>EASY-48220528074</v>
       </c>
       <c r="D1" s="5">
         <f ca="1">TODAY()</f>
@@ -687,11 +687,10 @@
         <v>27</v>
       </c>
       <c r="D7" s="5">
-        <v>45755</v>
+        <v>45748</v>
       </c>
       <c r="E7" s="5">
-        <f>+D7+F7</f>
-        <v>46120</v>
+        <v>45748</v>
       </c>
       <c r="F7" s="1">
         <v>365</v>

--- a/License.xlsx
+++ b/License.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\easy-licenses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0136B3-4FFA-4649-A3A3-B59777A2F086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55721DC-1772-4F0F-B372-D89EAC0D308E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10830" yWindow="705" windowWidth="13710" windowHeight="14895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="13710" windowHeight="14895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="License_DB" sheetId="1" r:id="rId1"/>
@@ -527,7 +527,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -547,7 +547,7 @@
     <row r="1" spans="1:13">
       <c r="C1" s="1" t="str">
         <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
-        <v>EASY-48220528074</v>
+        <v>EASY-39324599963</v>
       </c>
       <c r="D1" s="5">
         <f ca="1">TODAY()</f>

--- a/License.xlsx
+++ b/License.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\easy-licenses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55721DC-1772-4F0F-B372-D89EAC0D308E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D134D11D-8C0F-4176-82D6-7EC635E902FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="13710" windowHeight="14895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2025" yWindow="705" windowWidth="13710" windowHeight="14895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="License_DB" sheetId="1" r:id="rId1"/>
@@ -527,7 +527,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -547,7 +547,7 @@
     <row r="1" spans="1:13">
       <c r="C1" s="1" t="str">
         <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
-        <v>EASY-39324599963</v>
+        <v>EASY-61159468231</v>
       </c>
       <c r="D1" s="5">
         <f ca="1">TODAY()</f>
@@ -687,10 +687,11 @@
         <v>27</v>
       </c>
       <c r="D7" s="5">
-        <v>45748</v>
+        <v>45755</v>
       </c>
       <c r="E7" s="5">
-        <v>45748</v>
+        <f>+D7+F7</f>
+        <v>46120</v>
       </c>
       <c r="F7" s="1">
         <v>365</v>

--- a/License.xlsx
+++ b/License.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\easy-licenses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D134D11D-8C0F-4176-82D6-7EC635E902FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE12BCA9-2925-49F1-BBFA-BA8CB6E9183E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2025" yWindow="705" windowWidth="13710" windowHeight="14895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="License_DB" sheetId="1" r:id="rId1"/>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
-  <si>
-    <t>Prdt</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>ID</t>
   </si>
@@ -166,7 +163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -188,6 +185,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -526,13 +526,13 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
+    <col min="1" max="1" width="15.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="57.125" style="4" customWidth="1"/>
     <col min="3" max="3" width="34.75" style="6" customWidth="1"/>
     <col min="4" max="5" width="10.875" style="1" bestFit="1" customWidth="1"/>
@@ -547,7 +547,7 @@
     <row r="1" spans="1:13">
       <c r="C1" s="1" t="str">
         <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
-        <v>EASY-61159468231</v>
+        <v>EASY-79191443541</v>
       </c>
       <c r="D1" s="5">
         <f ca="1">TODAY()</f>
@@ -555,52 +555,53 @@
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="8">
+        <f ca="1">NOW()</f>
+        <v>45762.596078472219</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="B3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="D3" s="5">
         <v>45748</v>
@@ -613,15 +614,15 @@
         <v>365</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="B4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="D4" s="5">
         <v>45748</v>
@@ -634,15 +635,15 @@
         <v>365</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="D5" s="5">
         <v>45748</v>
@@ -655,15 +656,15 @@
         <v>365</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="B6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="D6" s="5">
         <v>45755</v>
@@ -676,15 +677,15 @@
         <v>365</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="B7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>27</v>
       </c>
       <c r="D7" s="5">
         <v>45755</v>
@@ -697,15 +698,15 @@
         <v>365</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="B8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="D8" s="5">
         <v>45757</v>
@@ -718,15 +719,15 @@
         <v>365</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="B9" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="5">
         <v>45761</v>
@@ -739,7 +740,7 @@
         <v>365</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/License.xlsx
+++ b/License.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\easy-licenses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE12BCA9-2925-49F1-BBFA-BA8CB6E9183E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3201B245-5588-4D59-9F51-B289AB69574C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -527,7 +527,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -545,9 +545,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
+      <c r="A1" s="8">
+        <f ca="1">NOW()</f>
+        <v>45762.599899652778</v>
+      </c>
       <c r="C1" s="1" t="str">
         <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
-        <v>EASY-79191443541</v>
+        <v>EASY-49383129446</v>
       </c>
       <c r="D1" s="5">
         <f ca="1">TODAY()</f>
@@ -556,8 +560,7 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="8">
-        <f ca="1">NOW()</f>
-        <v>45762.596078472219</v>
+        <v>45762.599859953705</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>0</v>

--- a/License.xlsx
+++ b/License.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\easy-licenses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3201B245-5588-4D59-9F51-B289AB69574C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CD4C6F-D8AA-40FF-A3A8-A5E4A5178801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11790" yWindow="3630" windowWidth="13710" windowHeight="14895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="License_DB" sheetId="1" r:id="rId1"/>
@@ -84,9 +84,6 @@
     <t>4C4C4544-004E-3710-804C-B2C04F434B33</t>
   </si>
   <si>
-    <t>68879046141</t>
-  </si>
-  <si>
     <t>4C4C4544-005A-3510-805A-B6C04F335032</t>
   </si>
   <si>
@@ -115,6 +112,9 @@
   </si>
   <si>
     <t>EASY-97179828553</t>
+  </si>
+  <si>
+    <t>EASY-19433532692</t>
   </si>
 </sst>
 </file>
@@ -527,7 +527,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -547,11 +547,11 @@
     <row r="1" spans="1:13">
       <c r="A1" s="8">
         <f ca="1">NOW()</f>
-        <v>45762.599899652778</v>
+        <v>45762.632305555555</v>
       </c>
       <c r="C1" s="1" t="str">
         <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
-        <v>EASY-49383129446</v>
+        <v>EASY-10076328834</v>
       </c>
       <c r="D1" s="5">
         <f ca="1">TODAY()</f>
@@ -625,7 +625,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D4" s="5">
         <v>45748</v>
@@ -643,10 +643,10 @@
     </row>
     <row r="5" spans="1:13">
       <c r="B5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>18</v>
       </c>
       <c r="D5" s="5">
         <v>45748</v>
@@ -664,10 +664,10 @@
     </row>
     <row r="6" spans="1:13">
       <c r="B6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>20</v>
       </c>
       <c r="D6" s="5">
         <v>45755</v>
@@ -685,10 +685,10 @@
     </row>
     <row r="7" spans="1:13">
       <c r="B7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>26</v>
       </c>
       <c r="D7" s="5">
         <v>45755</v>
@@ -706,10 +706,10 @@
     </row>
     <row r="8" spans="1:13">
       <c r="B8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="D8" s="5">
         <v>45757</v>
@@ -727,10 +727,10 @@
     </row>
     <row r="9" spans="1:13">
       <c r="B9" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="5">
         <v>45761</v>

--- a/License.xlsx
+++ b/License.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\easy-licenses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CD4C6F-D8AA-40FF-A3A8-A5E4A5178801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1944314-2623-4D8B-8151-EB7ABB1D0F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11790" yWindow="3630" windowWidth="13710" windowHeight="14895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11790" yWindow="705" windowWidth="13710" windowHeight="14895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="License_DB" sheetId="1" r:id="rId1"/>
@@ -527,7 +527,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -547,11 +547,11 @@
     <row r="1" spans="1:13">
       <c r="A1" s="8">
         <f ca="1">NOW()</f>
-        <v>45762.632305555555</v>
+        <v>45762.662045486111</v>
       </c>
       <c r="C1" s="1" t="str">
         <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
-        <v>EASY-10076328834</v>
+        <v>EASY-73961145347</v>
       </c>
       <c r="D1" s="5">
         <f ca="1">TODAY()</f>
@@ -560,7 +560,8 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="8">
-        <v>45762.599859953705</v>
+        <f ca="1">NOW()</f>
+        <v>45762.662045486111</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>0</v>

--- a/License.xlsx
+++ b/License.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\easy-licenses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1944314-2623-4D8B-8151-EB7ABB1D0F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15ED18C5-93A6-4A19-9D69-6B8B2DAAB78F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11790" yWindow="705" windowWidth="13710" windowHeight="14895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="License_DB" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>ID</t>
   </si>
@@ -115,13 +115,16 @@
   </si>
   <si>
     <t>EASY-19433532692</t>
+  </si>
+  <si>
+    <t>LEAnh@4404$LEKhanh!3696)LEHuyen!3200(LEWives(3448$LEFam</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,6 +141,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -163,31 +173,42 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0" hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -527,227 +548,230 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="15.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="57.125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="15.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="57.125" style="5" customWidth="1"/>
     <col min="3" max="3" width="34.75" style="6" customWidth="1"/>
-    <col min="4" max="5" width="10.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="9" style="2"/>
-    <col min="8" max="8" width="10.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="9" style="2"/>
-    <col min="14" max="16384" width="9" style="1"/>
+    <col min="4" max="5" width="10.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="2"/>
+    <col min="7" max="7" width="9" style="4"/>
+    <col min="8" max="8" width="10.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="9" style="4"/>
+    <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="8">
+      <c r="A1" s="1">
         <f ca="1">NOW()</f>
-        <v>45762.662045486111</v>
-      </c>
-      <c r="C1" s="1" t="str">
+        <v>45765.584853587963</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="2" t="str">
         <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
-        <v>EASY-73961145347</v>
-      </c>
-      <c r="D1" s="5">
+        <v>EASY-75138578347</v>
+      </c>
+      <c r="D1" s="3">
         <f ca="1">TODAY()</f>
-        <v>45762</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="8">
-        <f ca="1">NOW()</f>
-        <v>45762.662045486111</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="1">
+        <v>45765.584817592593</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="3">
         <v>45748</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="3">
         <f t="shared" ref="E3:E5" si="0">+D3+F3</f>
         <v>46113</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <v>365</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="3">
         <v>45748</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="3">
         <f t="shared" si="0"/>
         <v>46113</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
         <v>365</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="3">
         <v>45748</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="3">
         <f t="shared" si="0"/>
         <v>46113</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="2">
         <v>365</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="3">
         <v>45755</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="3">
         <f>+D6+F6</f>
         <v>46120</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <v>365</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="3">
         <v>45755</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="3">
         <f>+D7+F7</f>
         <v>46120</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="2">
         <v>365</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="3">
         <v>45757</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="3">
         <f>+D8+F8</f>
         <v>46122</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="2">
         <v>365</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="3">
         <v>45761</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="3">
         <f>+D9+F9</f>
         <v>46126</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="2">
         <v>365</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="4" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="E+EkXLw0/byZhQf+TORnOwLZsmRGw1VYrFpq3Hu4N6JJhycnqUgOiuaPCCaEemz0SpeQApfk39Dy/NrhQwNTUg==" saltValue="G+b6PndTcbGNPST4cmUyzQ==" spinCount="100000" sheet="1" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:M1048576" xr:uid="{6FE2708D-DB22-45AB-95CE-9F1DD5C935CE}">
       <formula1>"X"</formula1>

--- a/License.xlsx
+++ b/License.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\easy-licenses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15ED18C5-93A6-4A19-9D69-6B8B2DAAB78F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63AF2606-77D4-4526-94ED-17506A19E76D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14130" yWindow="1395" windowWidth="13710" windowHeight="14895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="License_DB" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>ID</t>
   </si>
@@ -109,9 +109,6 @@
   </si>
   <si>
     <t>4C68A711-89BE-412A-BD2D-CB33771CC62D</t>
-  </si>
-  <si>
-    <t>EASY-97179828553</t>
   </si>
   <si>
     <t>EASY-19433532692</t>
@@ -547,8 +544,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -568,18 +565,18 @@
     <row r="1" spans="1:13">
       <c r="A1" s="1">
         <f ca="1">NOW()</f>
-        <v>45765.584853587963</v>
+        <v>45785.620651157406</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" s="2" t="str">
         <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
-        <v>EASY-75138578347</v>
+        <v>EASY-36093861810</v>
       </c>
       <c r="D1" s="3">
         <f ca="1">TODAY()</f>
-        <v>45765</v>
+        <v>45785</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -649,7 +646,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="3">
         <v>45748</v>
@@ -711,22 +708,8 @@
       <c r="B7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="3">
-        <v>45755</v>
-      </c>
-      <c r="E7" s="3">
-        <f>+D7+F7</f>
-        <v>46120</v>
-      </c>
-      <c r="F7" s="2">
-        <v>365</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:13">
       <c r="B8" s="5" t="s">

--- a/License.xlsx
+++ b/License.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\easy-licenses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63AF2606-77D4-4526-94ED-17506A19E76D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33873E7-E0FC-4597-89FB-91D089D37609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14130" yWindow="1395" windowWidth="13710" windowHeight="14895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13005" yWindow="600" windowWidth="13710" windowHeight="14895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="License_DB" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>ID</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>LEAnh@4404$LEKhanh!3696)LEHuyen!3200(LEWives(3448$LEFam</t>
+  </si>
+  <si>
+    <t>EASY-33329183463</t>
   </si>
 </sst>
 </file>
@@ -544,8 +547,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -565,14 +568,14 @@
     <row r="1" spans="1:13">
       <c r="A1" s="1">
         <f ca="1">NOW()</f>
-        <v>45785.620651157406</v>
+        <v>45785.629832523147</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C1" s="2" t="str">
         <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
-        <v>EASY-36093861810</v>
+        <v>EASY-57826767131</v>
       </c>
       <c r="D1" s="3">
         <f ca="1">TODAY()</f>
@@ -581,7 +584,7 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1">
-        <v>45765.584817592593</v>
+        <v>45785.629690393522</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>0</v>
@@ -708,8 +711,22 @@
       <c r="B7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="C7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="3">
+        <v>45785</v>
+      </c>
+      <c r="E7" s="3">
+        <f>+D7+F7</f>
+        <v>46150</v>
+      </c>
+      <c r="F7" s="2">
+        <v>365</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" spans="1:13">
       <c r="B8" s="5" t="s">

--- a/License.xlsx
+++ b/License.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\easy-licenses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33873E7-E0FC-4597-89FB-91D089D37609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCB66E0-8A8C-4C53-ABC8-5A7BF43B47D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13005" yWindow="600" windowWidth="13710" windowHeight="14895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="License_DB" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>ID</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>EASY-33329183463</t>
+  </si>
+  <si>
+    <t>Link server</t>
   </si>
 </sst>
 </file>
@@ -173,7 +176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -207,8 +210,12 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0" hidden="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -545,13 +552,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="15.25" style="2" customWidth="1"/>
     <col min="2" max="2" width="57.125" style="5" customWidth="1"/>
@@ -562,27 +569,29 @@
     <col min="8" max="8" width="10.125" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.625" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="13" width="9" style="4"/>
-    <col min="14" max="16384" width="9" style="2"/>
+    <col min="14" max="14" width="0" style="10" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="9" style="2" collapsed="1"/>
+    <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1">
         <f ca="1">NOW()</f>
-        <v>45785.629832523147</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>26</v>
+        <v>45791.409982638892</v>
       </c>
       <c r="C1" s="2" t="str">
         <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
-        <v>EASY-57826767131</v>
+        <v>EASY-45699348056</v>
       </c>
       <c r="D1" s="3">
         <f ca="1">TODAY()</f>
-        <v>45785</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+        <v>45791</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>45785.629690393522</v>
       </c>
@@ -622,8 +631,11 @@
       <c r="M2" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="B3" s="8" t="s">
         <v>12</v>
       </c>
@@ -644,7 +656,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="B4" s="5" t="s">
         <v>15</v>
       </c>
@@ -665,7 +677,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="B5" s="5" t="s">
         <v>16</v>
       </c>
@@ -686,7 +698,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="B6" s="5" t="s">
         <v>18</v>
       </c>
@@ -707,7 +719,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="B7" s="5" t="s">
         <v>24</v>
       </c>
@@ -728,7 +740,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="B8" s="5" t="s">
         <v>20</v>
       </c>
@@ -749,7 +761,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:14">
       <c r="B9" s="5" t="s">
         <v>23</v>
       </c>
@@ -771,7 +783,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="E+EkXLw0/byZhQf+TORnOwLZsmRGw1VYrFpq3Hu4N6JJhycnqUgOiuaPCCaEemz0SpeQApfk39Dy/NrhQwNTUg==" saltValue="G+b6PndTcbGNPST4cmUyzQ==" spinCount="100000" sheet="1" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="agO1T067IgGoITPMHwJK3CXP1EWxX63OozzDL2To58KY28essbYv4/Qhdxa1IqsjzsaXYNMlSSx8MNj1OcZgKw==" saltValue="BLTeXkLG4JLnXSOkmgEx6g==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0" selectLockedCells="1" sort="0"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:M1048576" xr:uid="{6FE2708D-DB22-45AB-95CE-9F1DD5C935CE}">
       <formula1>"X"</formula1>

--- a/License.xlsx
+++ b/License.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\easy-licenses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCB66E0-8A8C-4C53-ABC8-5A7BF43B47D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ABC31AA-D738-4FE6-B466-41CAA9364119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="License_DB" sheetId="1" r:id="rId1"/>
@@ -120,7 +120,7 @@
     <t>EASY-33329183463</t>
   </si>
   <si>
-    <t>Link server</t>
+    <t>https://eocsooy3r4s26sr.m.pipedream.net</t>
   </si>
 </sst>
 </file>
@@ -555,7 +555,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -569,7 +569,7 @@
     <col min="8" max="8" width="10.125" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.625" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="13" width="9" style="4"/>
-    <col min="14" max="14" width="0" style="10" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="9" style="10" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="15" max="15" width="9" style="2" collapsed="1"/>
     <col min="16" max="16384" width="9" style="2"/>
   </cols>
@@ -577,11 +577,11 @@
     <row r="1" spans="1:14">
       <c r="A1" s="1">
         <f ca="1">NOW()</f>
-        <v>45791.409982638892</v>
+        <v>45791.580495717593</v>
       </c>
       <c r="C1" s="2" t="str">
         <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
-        <v>EASY-45699348056</v>
+        <v>EASY-92181323190</v>
       </c>
       <c r="D1" s="3">
         <f ca="1">TODAY()</f>
@@ -783,7 +783,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="agO1T067IgGoITPMHwJK3CXP1EWxX63OozzDL2To58KY28essbYv4/Qhdxa1IqsjzsaXYNMlSSx8MNj1OcZgKw==" saltValue="BLTeXkLG4JLnXSOkmgEx6g==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0" selectLockedCells="1" sort="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="QPinFxKoU0qZGbB7uG/NtaCehshd47WcLr+G6UQQddUDwYpfOPpwtVinEKun76WHdmEeTYtpTMFhqTlY56xUnQ==" saltValue="TgHZcYBFphL0wRT5HmTV0Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0" selectLockedCells="1" sort="0"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:M1048576" xr:uid="{6FE2708D-DB22-45AB-95CE-9F1DD5C935CE}">
       <formula1>"X"</formula1>

--- a/License.xlsx
+++ b/License.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\easy-licenses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ABC31AA-D738-4FE6-B466-41CAA9364119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB1D042-19FA-49F5-906F-9D9618DF3D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -120,7 +120,7 @@
     <t>EASY-33329183463</t>
   </si>
   <si>
-    <t>https://eocsooy3r4s26sr.m.pipedream.net</t>
+    <t>LINK SERVER</t>
   </si>
 </sst>
 </file>
@@ -555,7 +555,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -577,11 +577,11 @@
     <row r="1" spans="1:14">
       <c r="A1" s="1">
         <f ca="1">NOW()</f>
-        <v>45791.580495717593</v>
+        <v>45791.590967476855</v>
       </c>
       <c r="C1" s="2" t="str">
         <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
-        <v>EASY-92181323190</v>
+        <v>EASY-63349284130</v>
       </c>
       <c r="D1" s="3">
         <f ca="1">TODAY()</f>
@@ -593,7 +593,7 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>45785.629690393522</v>
+        <v>45791.590914814813</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>0</v>
@@ -783,7 +783,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="QPinFxKoU0qZGbB7uG/NtaCehshd47WcLr+G6UQQddUDwYpfOPpwtVinEKun76WHdmEeTYtpTMFhqTlY56xUnQ==" saltValue="TgHZcYBFphL0wRT5HmTV0Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0" selectLockedCells="1" sort="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="yIhqQi9wABKGEc9EvaY3Xjuw6a/Cp9xGA2mIF88q0kTNvJUbtQk4yJZLY/FLxYMr+GA4hLMqSll3fd4i8z2TDA==" saltValue="oCXjLTiUrkNBljk4ELvZJg==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0" selectLockedCells="1" sort="0"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:M1048576" xr:uid="{6FE2708D-DB22-45AB-95CE-9F1DD5C935CE}">
       <formula1>"X"</formula1>

--- a/License.xlsx
+++ b/License.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\easy-licenses\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ad09c6d446519e5c/Waifu/FIRM/Github/easy-licenses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB1D042-19FA-49F5-906F-9D9618DF3D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{BFB1D042-19FA-49F5-906F-9D9618DF3D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFDEEFAE-DAAF-48A0-94C0-B2D4F0E51822}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="License_DB" sheetId="1" r:id="rId1"/>
@@ -120,38 +120,38 @@
     <t>EASY-33329183463</t>
   </si>
   <si>
-    <t>LINK SERVER</t>
+    <t>https://eowmb828nsk7h9c.m.pipedream.net</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -202,7 +202,7 @@
       <alignment vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
@@ -210,10 +210,10 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -555,10 +555,10 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.25" style="2" customWidth="1"/>
     <col min="2" max="2" width="57.125" style="5" customWidth="1"/>
@@ -574,14 +574,14 @@
     <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <f ca="1">NOW()</f>
-        <v>45791.590967476855</v>
+        <v>45791.840332523148</v>
       </c>
       <c r="C1" s="2" t="str">
         <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
-        <v>EASY-63349284130</v>
+        <v>EASY-2416259207</v>
       </c>
       <c r="D1" s="3">
         <f ca="1">TODAY()</f>
@@ -591,9 +591,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>45791.590914814813</v>
+        <v>45791.840222685183</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>0</v>
@@ -635,7 +635,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
         <v>12</v>
       </c>
@@ -656,7 +656,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
         <v>15</v>
       </c>
@@ -677,7 +677,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
         <v>16</v>
       </c>
@@ -698,7 +698,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
         <v>18</v>
       </c>
@@ -719,7 +719,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
         <v>24</v>
       </c>
@@ -740,7 +740,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
         <v>20</v>
       </c>
@@ -761,7 +761,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
         <v>23</v>
       </c>
@@ -783,7 +783,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="yIhqQi9wABKGEc9EvaY3Xjuw6a/Cp9xGA2mIF88q0kTNvJUbtQk4yJZLY/FLxYMr+GA4hLMqSll3fd4i8z2TDA==" saltValue="oCXjLTiUrkNBljk4ELvZJg==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0" selectLockedCells="1" sort="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="jaFrPAwrvl76PT9dGv9j9Vb5j3C6N2JtyKw1Nbk4X1UBFFdyZNgzYooLsJhq50cA0VTc13yXRWtczyrtcqTGrg==" saltValue="BT+BCGzDXnVWMX1kQ7etMg==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0" selectLockedCells="1" sort="0"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:M1048576" xr:uid="{6FE2708D-DB22-45AB-95CE-9F1DD5C935CE}">
       <formula1>"X"</formula1>

--- a/License.xlsx
+++ b/License.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ad09c6d446519e5c/Waifu/FIRM/Github/easy-licenses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{BFB1D042-19FA-49F5-906F-9D9618DF3D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFDEEFAE-DAAF-48A0-94C0-B2D4F0E51822}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{BFB1D042-19FA-49F5-906F-9D9618DF3D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C602F2AF-D1AA-4AB1-B0D5-3CDA80F7B295}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -120,7 +120,7 @@
     <t>EASY-33329183463</t>
   </si>
   <si>
-    <t>https://eowmb828nsk7h9c.m.pipedream.net</t>
+    <t>link server</t>
   </si>
 </sst>
 </file>
@@ -555,7 +555,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -577,11 +577,11 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <f ca="1">NOW()</f>
-        <v>45791.840332523148</v>
+        <v>45791.844278819444</v>
       </c>
       <c r="C1" s="2" t="str">
         <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
-        <v>EASY-2416259207</v>
+        <v>EASY-38415550275</v>
       </c>
       <c r="D1" s="3">
         <f ca="1">TODAY()</f>
@@ -593,7 +593,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>45791.840222685183</v>
+        <v>45791.844263888888</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>0</v>
@@ -783,7 +783,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="jaFrPAwrvl76PT9dGv9j9Vb5j3C6N2JtyKw1Nbk4X1UBFFdyZNgzYooLsJhq50cA0VTc13yXRWtczyrtcqTGrg==" saltValue="BT+BCGzDXnVWMX1kQ7etMg==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0" selectLockedCells="1" sort="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="xvP86Ljv6DPmSMGqbFzGOaMRO8KN4hiVhSMdPU39kZhQeXX4HMCuVbKeuGYWSC8gSYjDCx1Zl0ydztcOu1i2CA==" saltValue="gspROG8GAJ7zKhKLWH7SyA==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0" selectLockedCells="1" sort="0"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:M1048576" xr:uid="{6FE2708D-DB22-45AB-95CE-9F1DD5C935CE}">
       <formula1>"X"</formula1>

--- a/License.xlsx
+++ b/License.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\easy-licenses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB1D042-19FA-49F5-906F-9D9618DF3D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E95B37-33AA-4CB3-B62B-A00B47B08ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="License_DB" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>ID</t>
   </si>
@@ -121,13 +121,16 @@
   </si>
   <si>
     <t>LINK SERVER</t>
+  </si>
+  <si>
+    <t>EASY-FULL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,7 +205,7 @@
       <alignment vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
@@ -210,10 +213,10 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -555,45 +558,45 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="57.125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="34.75" style="6" customWidth="1"/>
-    <col min="4" max="5" width="10.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="57.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" style="6" customWidth="1"/>
+    <col min="4" max="5" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="2"/>
     <col min="7" max="7" width="9" style="4"/>
-    <col min="8" max="8" width="10.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="13" width="9" style="4"/>
     <col min="14" max="14" width="9" style="10" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="15" max="15" width="9" style="2" collapsed="1"/>
     <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <f ca="1">NOW()</f>
-        <v>45791.590967476855</v>
+        <v>45800.660402546295</v>
       </c>
       <c r="C1" s="2" t="str">
         <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
-        <v>EASY-63349284130</v>
+        <v>EASY-58790690624</v>
       </c>
       <c r="D1" s="3">
         <f ca="1">TODAY()</f>
-        <v>45791</v>
+        <v>45800</v>
       </c>
       <c r="N1" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45791.590914814813</v>
+        <v>45800.66035416667</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>0</v>
@@ -635,7 +638,10 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="B3" s="8" t="s">
         <v>12</v>
       </c>
@@ -656,7 +662,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="B4" s="5" t="s">
         <v>15</v>
       </c>
@@ -677,7 +686,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="B5" s="5" t="s">
         <v>16</v>
       </c>
@@ -698,7 +710,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="B6" s="5" t="s">
         <v>18</v>
       </c>
@@ -719,7 +734,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="B7" s="5" t="s">
         <v>24</v>
       </c>
@@ -740,7 +758,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="B8" s="5" t="s">
         <v>20</v>
       </c>
@@ -761,7 +782,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="B9" s="5" t="s">
         <v>23</v>
       </c>

--- a/License.xlsx
+++ b/License.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ad09c6d446519e5c/Waifu/FIRM/Github/easy-licenses/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\easy-licenses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{BFB1D042-19FA-49F5-906F-9D9618DF3D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C602F2AF-D1AA-4AB1-B0D5-3CDA80F7B295}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2BD17F-5B17-4ABE-BF79-858B6EB6503C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="License_DB" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>ID</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>link server</t>
+  </si>
+  <si>
+    <t>EASY-FULL</t>
   </si>
 </sst>
 </file>
@@ -131,27 +134,27 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Arial"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Arial"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -555,45 +558,45 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="57.125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="34.75" style="6" customWidth="1"/>
-    <col min="4" max="5" width="10.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="57.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" style="6" customWidth="1"/>
+    <col min="4" max="5" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="2"/>
     <col min="7" max="7" width="9" style="4"/>
-    <col min="8" max="8" width="10.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="13" width="9" style="4"/>
     <col min="14" max="14" width="9" style="10" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="15" max="15" width="9" style="2" collapsed="1"/>
     <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <f ca="1">NOW()</f>
-        <v>45791.844278819444</v>
+        <v>45800.661183217591</v>
       </c>
       <c r="C1" s="2" t="str">
         <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
-        <v>EASY-38415550275</v>
+        <v>EASY-5029542103</v>
       </c>
       <c r="D1" s="3">
         <f ca="1">TODAY()</f>
-        <v>45791</v>
+        <v>45800</v>
       </c>
       <c r="N1" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45791.844263888888</v>
+        <v>45800.66115104167</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>0</v>
@@ -635,7 +638,10 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="B3" s="8" t="s">
         <v>12</v>
       </c>
@@ -656,7 +662,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="B4" s="5" t="s">
         <v>15</v>
       </c>
@@ -677,7 +686,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="B5" s="5" t="s">
         <v>16</v>
       </c>
@@ -698,7 +710,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="B6" s="5" t="s">
         <v>18</v>
       </c>
@@ -719,7 +734,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="B7" s="5" t="s">
         <v>24</v>
       </c>
@@ -740,7 +758,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="B8" s="5" t="s">
         <v>20</v>
       </c>
@@ -761,7 +782,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="B9" s="5" t="s">
         <v>23</v>
       </c>

--- a/License.xlsx
+++ b/License.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827" codeName="{0730EB3F-75F1-03CD-C966-41DC9FD4AD36}"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\easy-licenses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2BD17F-5B17-4ABE-BF79-858B6EB6503C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D4DEB72-F7B0-4CFE-AFF3-95D64D6BCB5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="750" windowWidth="28770" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="License_DB" sheetId="1" r:id="rId1"/>
   </sheets>
+  <functionGroups builtInGroupCount="19"/>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -558,7 +559,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C16" sqref="C16:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -580,15 +581,15 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <f ca="1">NOW()</f>
-        <v>45800.661183217591</v>
+        <v>45813.663855902778</v>
       </c>
       <c r="C1" s="2" t="str">
         <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
-        <v>EASY-5029542103</v>
+        <v>EASY-82207957765</v>
       </c>
       <c r="D1" s="3">
         <f ca="1">TODAY()</f>
-        <v>45800</v>
+        <v>45813</v>
       </c>
       <c r="N1" s="9" t="s">
         <v>26</v>

--- a/License.xlsx
+++ b/License.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\easy-licenses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D4DEB72-F7B0-4CFE-AFF3-95D64D6BCB5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE20AD20-531B-4367-8D37-E7E4063F1A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30" yWindow="750" windowWidth="28770" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -559,7 +559,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:C17"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -581,11 +581,11 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <f ca="1">NOW()</f>
-        <v>45813.663855902778</v>
+        <v>45813.664038310184</v>
       </c>
       <c r="C1" s="2" t="str">
         <f ca="1">CONCATENATE("EASY-",ROUND(RAND()*100000000000,0))</f>
-        <v>EASY-82207957765</v>
+        <v>EASY-65704212148</v>
       </c>
       <c r="D1" s="3">
         <f ca="1">TODAY()</f>
@@ -597,7 +597,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45800.66115104167</v>
+        <v>45813.663855902778</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>0</v>
